--- a/Data/Misc_Data_for_Presentation_20191106.xlsx
+++ b/Data/Misc_Data_for_Presentation_20191106.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pzl/Documents/Papers/2013AutomatedVehicles/2016CAVEnergyModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C288302D-1007-574E-A2D8-090BEC55F419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C751B9-50CC-F547-A955-620650719BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="27420" windowHeight="17040" activeTab="1" xr2:uid="{5C91C551-677D-664D-B1D3-58BA1354320C}"/>
+    <workbookView xWindow="2440" yWindow="460" windowWidth="27420" windowHeight="17040" activeTab="2" xr2:uid="{5C91C551-677D-664D-B1D3-58BA1354320C}"/>
   </bookViews>
   <sheets>
-    <sheet name="WenzelEtAlEsts" sheetId="1" r:id="rId1"/>
+    <sheet name="WenzelEtAlDeadheadEsts" sheetId="1" r:id="rId1"/>
     <sheet name="MultipleDeadheadEsts" sheetId="2" r:id="rId2"/>
-    <sheet name="TimeValue" sheetId="6" r:id="rId3"/>
+    <sheet name="TimeValueEsts" sheetId="6" r:id="rId3"/>
     <sheet name="EVSufficiency" sheetId="3" r:id="rId4"/>
     <sheet name="VehicleReplacement" sheetId="4" r:id="rId5"/>
     <sheet name="ModalShift" sheetId="5" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>H</t>
   </si>
@@ -236,39 +236,9 @@
     <t xml:space="preserve">~ 0.16   </t>
   </si>
   <si>
-    <t>}by Congestion</t>
-  </si>
-  <si>
-    <t>◦Higher cost relative to in vehicle free-flow time</t>
-  </si>
-  <si>
-    <t>◦A&amp;W 1.54 (raw), 1.34 (regression)</t>
-  </si>
-  <si>
-    <t>}by Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">◦Increasing discomfort/opportunity cost with trip length. Elasticity:  </t>
-  </si>
-  <si>
-    <t>}by Income:</t>
-  </si>
-  <si>
-    <t>◦Increasing cost/hr with income. Elasticity:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">◦A&amp;W: 0.90  </t>
-  </si>
-  <si>
-    <t>◦S&amp;J: 0.47 (business), 0.67 (commuting), 0.52 (other)</t>
-  </si>
-  <si>
     <t>Congestion</t>
   </si>
   <si>
-    <t>1.34 - 1.54</t>
-  </si>
-  <si>
     <t>A&amp;W 2011</t>
   </si>
   <si>
@@ -303,6 +273,45 @@
   </si>
   <si>
     <t>Auld et al. 2019</t>
+  </si>
+  <si>
+    <t>A&amp;W</t>
+  </si>
+  <si>
+    <t>S&amp;J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Elasticity:</t>
+  </si>
+  <si>
+    <t>By Income: Increasing cost/hr with income</t>
+  </si>
+  <si>
+    <t>By Distance: Increasing discomfort/opportunity cost with trip length.</t>
+  </si>
+  <si>
+    <t>By Congestion: Higher cost relative to in vehicle free-flow time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&amp;W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (regression)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (raw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Elasticity:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Business travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Commuting Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other</t>
   </si>
 </sst>
 </file>
@@ -880,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB434A4-DF5A-9E4D-A97A-0BBB78D09373}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1118,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007108AE-62D2-2848-8E61-9200A85D5AE8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="167" workbookViewId="0">
+    <sheetView zoomScale="171" zoomScaleNormal="167" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1300,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF334FD-863A-624F-B9CC-1AF67486C517}">
-  <dimension ref="A2:C35"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1326,10 +1335,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23">
@@ -1340,7 +1349,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1363,16 +1372,14 @@
     </row>
     <row r="8" spans="1:3" ht="23">
       <c r="A8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="24" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
@@ -1406,97 +1413,138 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>66</v>
+      <c r="A21" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>1.54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>1.34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>69</v>
+      <c r="A24" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>71</v>
+      <c r="A26" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>0.47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>0.67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>0.52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-0.31</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>81</v>
+      <c r="A32" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
-        <v>-0.13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
+        <v>-0.31</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-0.13</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
